--- a/biology/Botanique/Moquilea_guianensis/Moquilea_guianensis.xlsx
+++ b/biology/Botanique/Moquilea_guianensis/Moquilea_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Moquilea guianensis est une espèce de plantes à fleurs de la famille des Chrysobalanaceae. C'est l'espèce type du genre Moquilea Aubl..
 C'est un arbre néotropical.
-En Guyane, on l'appelle Cèdre (Créole)[3].
-Il est connu au Guyana sous le nom de Swamp kauta[4].
+En Guyane, on l'appelle Cèdre (Créole).
+Il est connu au Guyana sous le nom de Swamp kauta.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Moquilea guianensis est un arbre souvent petit à moyen, atteignant jusqu'à 15–45 m de haut.
 Les jeunes branches sont glabres, discrètement lenticellées.
@@ -537,7 +551,7 @@
 Le fruit est oblong à globuleux, mesurant jusqu'à 5 cm de diamètre.
 L'épicarpe (exocarpe) est lisse et glabre, devenant noir au séchage.
 Le mésocarpe est fin, charnu, fibreux.
-L'endocarpe est fin, fragile, et glabre à l'intérieur[4],[5],[3].
+L'endocarpe est fin, fragile, et glabre à l'intérieur.
 </t>
         </is>
       </c>
@@ -566,9 +580,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Moquilea guianensis est présent au Venezuela (delta de l'Orénoque), au Guyana, au Suriname, en Guyane, et dans l'ouest de l'(Amazonie péruvienne et brésilienne[5],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moquilea guianensis est présent au Venezuela (delta de l'Orénoque), au Guyana, au Suriname, en Guyane, et dans l'ouest de l'(Amazonie péruvienne et brésilienne,.
 </t>
         </is>
       </c>
@@ -597,10 +613,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Moquilea guianensis pousse au Venezuela dans les forêts ripicoles autour de 0–200 m d'altitude[5],[4].
-On le rencontre en Guyane dans les forêts de terre ferme (non inondée) et il fleurit ent mars/avril/mai[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moquilea guianensis pousse au Venezuela dans les forêts ripicoles autour de 0–200 m d'altitude,.
+On le rencontre en Guyane dans les forêts de terre ferme (non inondée) et il fleurit ent mars/avril/mai.
 </t>
         </is>
       </c>
@@ -629,9 +647,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[1] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « MOQUILEA Guianenſis. (Tabula 208.)
 Arbor trunco triginta-pedali, &amp; ampliùs, coſtis pluribus infernè quaſi ſuffultus, fupernè ramoſus; ramis hinc &amp; indè protenſis. Folia alterna, ovato-oblonga, acuminata, glabra, integerrima, rigida, brevi petiolata. Flores racemoſi, axillares &amp; terminales.
 Florebat Maio.
